--- a/bsd-api-dms-order/sample_Order_File_mamasuka_v3 - 100 data.xlsx
+++ b/bsd-api-dms-order/sample_Order_File_mamasuka_v3 - 100 data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\mono-dms-new\bsd-api-dms-order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288EFBF6-881E-4F9E-BFD7-A790E41D5E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFC5366-52F4-427C-B481-ADC25028A4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -848,13 +848,13 @@
     <t>Frontliner</t>
   </si>
   <si>
-    <t>SUBDIST_1</t>
-  </si>
-  <si>
     <t>Frontliner Abc</t>
   </si>
   <si>
     <t>Market ID</t>
+  </si>
+  <si>
+    <t>DIST_DKI</t>
   </si>
 </sst>
 </file>
@@ -889,12 +889,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -909,12 +915,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1134,7 +1141,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC14" sqref="AC14"/>
+      <selection pane="bottomLeft" activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1170,88 +1177,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="5" t="s">
         <v>24</v>
       </c>
       <c r="AF1" s="1"/>
@@ -1291,10 +1298,10 @@
         <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1371,10 +1378,10 @@
         <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1451,10 +1458,10 @@
         <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1531,10 +1538,10 @@
         <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1611,10 +1618,10 @@
         <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1691,10 +1698,10 @@
         <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1765,10 +1772,10 @@
         <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1839,10 +1846,10 @@
         <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1913,10 +1920,10 @@
         <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1987,10 +1994,10 @@
         <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2061,10 +2068,10 @@
         <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2135,10 +2142,10 @@
         <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2209,10 +2216,10 @@
         <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2283,10 +2290,10 @@
         <v>49</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2357,10 +2364,10 @@
         <v>49</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2437,10 +2444,10 @@
         <v>49</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2517,10 +2524,10 @@
         <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2597,10 +2604,10 @@
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2677,10 +2684,10 @@
         <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2757,10 +2764,10 @@
         <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2837,10 +2844,10 @@
         <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2917,10 +2924,10 @@
         <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2997,10 +3004,10 @@
         <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -3077,10 +3084,10 @@
         <v>49</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -3157,10 +3164,10 @@
         <v>49</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -3237,10 +3244,10 @@
         <v>49</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -3317,10 +3324,10 @@
         <v>49</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -3397,10 +3404,10 @@
         <v>49</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -3477,10 +3484,10 @@
         <v>49</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -3557,10 +3564,10 @@
         <v>49</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -3631,10 +3638,10 @@
         <v>49</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -3705,10 +3712,10 @@
         <v>49</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -3779,10 +3786,10 @@
         <v>49</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3853,10 +3860,10 @@
         <v>49</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3927,10 +3934,10 @@
         <v>49</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -4001,10 +4008,10 @@
         <v>49</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -4081,10 +4088,10 @@
         <v>49</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -4161,10 +4168,10 @@
         <v>49</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -4241,10 +4248,10 @@
         <v>49</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -4321,10 +4328,10 @@
         <v>49</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -4401,10 +4408,10 @@
         <v>49</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -4481,10 +4488,10 @@
         <v>49</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -4561,10 +4568,10 @@
         <v>49</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -4641,10 +4648,10 @@
         <v>49</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -4721,10 +4728,10 @@
         <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -4801,10 +4808,10 @@
         <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -4881,10 +4888,10 @@
         <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -4961,10 +4968,10 @@
         <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -5041,10 +5048,10 @@
         <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -5115,10 +5122,10 @@
         <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -5189,10 +5196,10 @@
         <v>49</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -5263,10 +5270,10 @@
         <v>49</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -5337,10 +5344,10 @@
         <v>49</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -5411,10 +5418,10 @@
         <v>49</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -5485,10 +5492,10 @@
         <v>49</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -5559,10 +5566,10 @@
         <v>49</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -5633,10 +5640,10 @@
         <v>49</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -5707,10 +5714,10 @@
         <v>49</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -5781,10 +5788,10 @@
         <v>49</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -5861,10 +5868,10 @@
         <v>49</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -5941,10 +5948,10 @@
         <v>49</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -6021,10 +6028,10 @@
         <v>49</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -6101,10 +6108,10 @@
         <v>49</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -6181,10 +6188,10 @@
         <v>49</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -6261,10 +6268,10 @@
         <v>49</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -6341,10 +6348,10 @@
         <v>49</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -6421,10 +6428,10 @@
         <v>49</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -6495,10 +6502,10 @@
         <v>49</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -6569,10 +6576,10 @@
         <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -6643,10 +6650,10 @@
         <v>49</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -6717,10 +6724,10 @@
         <v>49</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -6791,10 +6798,10 @@
         <v>49</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -6865,10 +6872,10 @@
         <v>49</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -6939,10 +6946,10 @@
         <v>49</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -7013,10 +7020,10 @@
         <v>49</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -7087,10 +7094,10 @@
         <v>49</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -7161,10 +7168,10 @@
         <v>49</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -7235,10 +7242,10 @@
         <v>49</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -7309,10 +7316,10 @@
         <v>49</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -7383,10 +7390,10 @@
         <v>49</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -7457,10 +7464,10 @@
         <v>49</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -7531,10 +7538,10 @@
         <v>49</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -7605,10 +7612,10 @@
         <v>49</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -7679,10 +7686,10 @@
         <v>49</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -7759,10 +7766,10 @@
         <v>49</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -7839,10 +7846,10 @@
         <v>49</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -7919,10 +7926,10 @@
         <v>49</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -7999,10 +8006,10 @@
         <v>49</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -8079,10 +8086,10 @@
         <v>49</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -8159,10 +8166,10 @@
         <v>49</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -8239,10 +8246,10 @@
         <v>49</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -8319,10 +8326,10 @@
         <v>49</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -8399,10 +8406,10 @@
         <v>49</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -8479,10 +8486,10 @@
         <v>49</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -8559,10 +8566,10 @@
         <v>49</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -8639,10 +8646,10 @@
         <v>49</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -8719,10 +8726,10 @@
         <v>49</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -8799,10 +8806,10 @@
         <v>49</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -8879,10 +8886,10 @@
         <v>49</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E100">
         <v>1</v>

--- a/bsd-api-dms-order/sample_Order_File_mamasuka_v3 - 100 data.xlsx
+++ b/bsd-api-dms-order/sample_Order_File_mamasuka_v3 - 100 data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\mono-dms-new\bsd-api-dms-order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFC5366-52F4-427C-B481-ADC25028A4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557FBE26-0FAF-4FC5-99AC-DB9EE4ADD042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -191,9 +191,6 @@
     <t>Mamasuka</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/00</t>
-  </si>
-  <si>
     <t>4.140402.016</t>
   </si>
   <si>
@@ -212,60 +209,36 @@
     <t>Harjosari I</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/01</t>
-  </si>
-  <si>
     <t>4.140401.027</t>
   </si>
   <si>
     <t>Lemonilo Mie Goreng 20x80 gr</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/02</t>
-  </si>
-  <si>
     <t>4.140402.017</t>
   </si>
   <si>
     <t>Lemonilo Chimi Jagung Balado 24x50G</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/03</t>
-  </si>
-  <si>
     <t>4.140401.028</t>
   </si>
   <si>
     <t>Lemonilo Mie Bawang 20x70 gr</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/04</t>
-  </si>
-  <si>
     <t>4.140401.012</t>
   </si>
   <si>
     <t>Lemonilo Mie Pedas Korea 20x85 gr</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/05</t>
-  </si>
-  <si>
     <t>YOGYA SUKABUMI</t>
   </si>
   <si>
     <t>Kota Sukabumi</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/06</t>
-  </si>
-  <si>
-    <t>INV/20230929/MMS/07</t>
-  </si>
-  <si>
-    <t>INV/20230929/MMS/08</t>
-  </si>
-  <si>
     <t>4.140401.011</t>
   </si>
   <si>
@@ -275,39 +248,21 @@
     <t>1/10</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/09</t>
-  </si>
-  <si>
     <t>Skunew003</t>
   </si>
   <si>
     <t>Lemonilo Ramen Jepang</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/10</t>
-  </si>
-  <si>
     <t>Lemonilo Brownies Crispy Chocochips 40 GR</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/11</t>
-  </si>
-  <si>
     <t>Lemonilo Brownies Crispy Keju 40 GR</t>
   </si>
   <si>
     <t>1/13</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/12</t>
-  </si>
-  <si>
-    <t>INV/20230929/MMS/13</t>
-  </si>
-  <si>
-    <t>INV/20230929/MMS/14</t>
-  </si>
-  <si>
     <t>BRASTAGI TIARA</t>
   </si>
   <si>
@@ -323,18 +278,6 @@
     <t>1/16</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/15</t>
-  </si>
-  <si>
-    <t>INV/20230929/MMS/16</t>
-  </si>
-  <si>
-    <t>INV/20230929/MMS/17</t>
-  </si>
-  <si>
-    <t>INV/20230929/MMS/18</t>
-  </si>
-  <si>
     <t>Skunew002</t>
   </si>
   <si>
@@ -344,30 +287,15 @@
     <t>1/20</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/19</t>
-  </si>
-  <si>
     <t>1/21</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/20</t>
-  </si>
-  <si>
-    <t>INV/20230929/MMS/21</t>
-  </si>
-  <si>
     <t>1/23</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/22</t>
-  </si>
-  <si>
     <t>1/24</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/23</t>
-  </si>
-  <si>
     <t>INDOGROSIR SUKABUMI</t>
   </si>
   <si>
@@ -377,9 +305,6 @@
     <t>Baros</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/24</t>
-  </si>
-  <si>
     <t>4.140401.029</t>
   </si>
   <si>
@@ -389,72 +314,39 @@
     <t>1/26</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/25</t>
-  </si>
-  <si>
     <t>1/27</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/26</t>
-  </si>
-  <si>
     <t>1/28</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/27</t>
-  </si>
-  <si>
     <t>1/29</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/28</t>
-  </si>
-  <si>
     <t>1/30</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/29</t>
-  </si>
-  <si>
     <t>CV IRIAN BAHAGIA BERSAMA</t>
   </si>
   <si>
     <t>1/31</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/30</t>
-  </si>
-  <si>
     <t>1/32</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/31</t>
-  </si>
-  <si>
     <t>1/33</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/32</t>
-  </si>
-  <si>
     <t>1/34</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/33</t>
-  </si>
-  <si>
     <t>1/35</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/34</t>
-  </si>
-  <si>
     <t>1/36</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/35</t>
-  </si>
-  <si>
     <t>BRASTAGI GATSU</t>
   </si>
   <si>
@@ -470,249 +362,123 @@
     <t>1/37</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/36</t>
-  </si>
-  <si>
     <t>1/38</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/37</t>
-  </si>
-  <si>
     <t>1/39</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/38</t>
-  </si>
-  <si>
     <t>1/40</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/39</t>
-  </si>
-  <si>
     <t>1/41</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/40</t>
-  </si>
-  <si>
     <t>1/42</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/41</t>
-  </si>
-  <si>
     <t>1/43</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/42</t>
-  </si>
-  <si>
     <t>1/44</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/43</t>
-  </si>
-  <si>
     <t>1/45</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/44</t>
-  </si>
-  <si>
     <t>1/46</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/45</t>
-  </si>
-  <si>
     <t>1/47</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/46</t>
-  </si>
-  <si>
     <t>1/48</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/47</t>
-  </si>
-  <si>
     <t>1/49</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/48</t>
-  </si>
-  <si>
     <t>1/50</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/49</t>
-  </si>
-  <si>
     <t>1/51</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/50</t>
-  </si>
-  <si>
-    <t>INV/20230929/MMS/51</t>
-  </si>
-  <si>
     <t>1/53</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/52</t>
-  </si>
-  <si>
     <t>1/54</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/53</t>
-  </si>
-  <si>
     <t>1/55</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/54</t>
-  </si>
-  <si>
     <t>1/56</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/55</t>
-  </si>
-  <si>
     <t>1/57</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/56</t>
-  </si>
-  <si>
     <t>1/58</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/57</t>
-  </si>
-  <si>
     <t>1/59</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/58</t>
-  </si>
-  <si>
     <t>1/60</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/59</t>
-  </si>
-  <si>
     <t>1/61</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/60</t>
-  </si>
-  <si>
     <t>1/62</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/61</t>
-  </si>
-  <si>
     <t>1/63</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/62</t>
-  </si>
-  <si>
     <t>1/64</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/63</t>
-  </si>
-  <si>
     <t>1/65</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/64</t>
-  </si>
-  <si>
     <t>1/66</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/65</t>
-  </si>
-  <si>
     <t>1/67</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/66</t>
-  </si>
-  <si>
     <t>1/68</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/67</t>
-  </si>
-  <si>
     <t>1/69</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/68</t>
-  </si>
-  <si>
     <t>1/70</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/69</t>
-  </si>
-  <si>
     <t>1/71</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/70</t>
-  </si>
-  <si>
     <t>1/72</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/71</t>
-  </si>
-  <si>
     <t>1/73</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/72</t>
-  </si>
-  <si>
     <t>1/74</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/73</t>
-  </si>
-  <si>
-    <t>INV/20230929/MMS/74</t>
-  </si>
-  <si>
     <t>1/76</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/75</t>
-  </si>
-  <si>
     <t>1/77</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/76</t>
-  </si>
-  <si>
     <t>1/78</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/77</t>
-  </si>
-  <si>
     <t>konjagu001</t>
   </si>
   <si>
@@ -722,129 +488,66 @@
     <t>1/79</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/78</t>
-  </si>
-  <si>
     <t>1/80</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/79</t>
-  </si>
-  <si>
     <t>1/81</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/80</t>
-  </si>
-  <si>
     <t>1/82</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/81</t>
-  </si>
-  <si>
     <t>1/83</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/82</t>
-  </si>
-  <si>
     <t>1/84</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/83</t>
-  </si>
-  <si>
     <t>1/85</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/84</t>
-  </si>
-  <si>
     <t>1/86</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/85</t>
-  </si>
-  <si>
     <t>1/87</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/86</t>
-  </si>
-  <si>
     <t>1/88</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/87</t>
-  </si>
-  <si>
     <t>1/89</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/88</t>
-  </si>
-  <si>
     <t>1/90</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/89</t>
-  </si>
-  <si>
     <t>1/91</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/90</t>
-  </si>
-  <si>
     <t>1/92</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/91</t>
-  </si>
-  <si>
     <t>1/93</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/92</t>
-  </si>
-  <si>
     <t>1/94</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/93</t>
-  </si>
-  <si>
     <t>1/95</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/94</t>
-  </si>
-  <si>
     <t>1/96</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/95</t>
-  </si>
-  <si>
     <t>1/97</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/96</t>
-  </si>
-  <si>
     <t>1/98</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/97</t>
-  </si>
-  <si>
     <t>1/99</t>
   </si>
   <si>
-    <t>INV/20230929/MMS/98</t>
-  </si>
-  <si>
     <t>Frontliner</t>
   </si>
   <si>
@@ -854,7 +557,304 @@
     <t>Market ID</t>
   </si>
   <si>
-    <t>DIST_DKI</t>
+    <t>DIST_JABAR</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/00</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/01</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/02</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/03</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/04</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/05</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/06</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/07</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/08</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/09</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/10</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/11</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/12</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/13</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/14</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/15</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/16</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/17</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/18</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/19</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/20</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/21</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/22</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/23</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/24</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/25</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/26</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/27</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/28</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/29</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/30</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/31</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/32</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/33</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/34</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/35</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/36</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/37</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/38</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/39</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/40</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/41</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/42</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/43</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/44</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/45</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/46</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/47</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/48</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/49</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/50</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/51</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/52</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/53</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/54</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/55</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/56</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/57</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/58</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/59</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/60</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/61</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/62</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/63</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/64</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/65</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/66</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/67</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/68</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/69</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/70</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/71</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/72</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/73</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/74</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/75</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/76</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/77</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/78</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/79</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/80</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/81</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/82</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/83</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/84</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/85</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/86</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/87</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/88</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/89</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/90</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/91</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/92</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/93</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/94</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/95</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/96</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/97</t>
+  </si>
+  <si>
+    <t>INV/20231101/DIST_JABAR/98</t>
   </si>
 </sst>
 </file>
@@ -1139,9 +1139,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA3" sqref="AA3"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1154,7 +1154,7 @@
     <col min="6" max="6" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
@@ -1184,10 +1184,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>270</v>
+        <v>171</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>268</v>
+        <v>169</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>2</v>
@@ -1298,10 +1298,10 @@
         <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1316,13 +1316,13 @@
         <v>30</v>
       </c>
       <c r="I2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" t="s">
         <v>50</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>51</v>
-      </c>
-      <c r="K2" t="s">
-        <v>52</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>25</v>
@@ -1349,10 +1349,10 @@
         <v>1000</v>
       </c>
       <c r="U2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" t="s">
         <v>53</v>
-      </c>
-      <c r="W2" t="s">
-        <v>54</v>
       </c>
       <c r="X2" t="s">
         <v>35</v>
@@ -1361,13 +1361,13 @@
         <v>36</v>
       </c>
       <c r="Z2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA2" t="s">
         <v>55</v>
       </c>
-      <c r="AA2" t="s">
-        <v>56</v>
-      </c>
       <c r="AB2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -1378,10 +1378,10 @@
         <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1396,13 +1396,13 @@
         <v>31</v>
       </c>
       <c r="I3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
         <v>57</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>25</v>
@@ -1429,10 +1429,10 @@
         <v>1000</v>
       </c>
       <c r="U3" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" t="s">
         <v>53</v>
-      </c>
-      <c r="W3" t="s">
-        <v>54</v>
       </c>
       <c r="X3" t="s">
         <v>35</v>
@@ -1441,13 +1441,13 @@
         <v>36</v>
       </c>
       <c r="Z3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA3" t="s">
         <v>55</v>
       </c>
-      <c r="AA3" t="s">
-        <v>56</v>
-      </c>
       <c r="AB3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -1458,10 +1458,10 @@
         <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1476,13 +1476,13 @@
         <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>25</v>
@@ -1509,10 +1509,10 @@
         <v>1000</v>
       </c>
       <c r="U4" t="s">
+        <v>52</v>
+      </c>
+      <c r="W4" t="s">
         <v>53</v>
-      </c>
-      <c r="W4" t="s">
-        <v>54</v>
       </c>
       <c r="X4" t="s">
         <v>35</v>
@@ -1521,13 +1521,13 @@
         <v>36</v>
       </c>
       <c r="Z4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA4" t="s">
         <v>55</v>
       </c>
-      <c r="AA4" t="s">
-        <v>56</v>
-      </c>
       <c r="AB4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -1538,10 +1538,10 @@
         <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1556,13 +1556,13 @@
         <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>176</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>25</v>
@@ -1589,10 +1589,10 @@
         <v>1000</v>
       </c>
       <c r="U5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W5" t="s">
         <v>53</v>
-      </c>
-      <c r="W5" t="s">
-        <v>54</v>
       </c>
       <c r="X5" t="s">
         <v>35</v>
@@ -1601,13 +1601,13 @@
         <v>36</v>
       </c>
       <c r="Z5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA5" t="s">
         <v>55</v>
       </c>
-      <c r="AA5" t="s">
-        <v>56</v>
-      </c>
       <c r="AB5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -1618,10 +1618,10 @@
         <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1636,13 +1636,13 @@
         <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>25</v>
@@ -1669,10 +1669,10 @@
         <v>1000</v>
       </c>
       <c r="U6" t="s">
+        <v>52</v>
+      </c>
+      <c r="W6" t="s">
         <v>53</v>
-      </c>
-      <c r="W6" t="s">
-        <v>54</v>
       </c>
       <c r="X6" t="s">
         <v>35</v>
@@ -1681,13 +1681,13 @@
         <v>36</v>
       </c>
       <c r="Z6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA6" t="s">
         <v>55</v>
       </c>
-      <c r="AA6" t="s">
-        <v>56</v>
-      </c>
       <c r="AB6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -1698,10 +1698,10 @@
         <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1716,13 +1716,13 @@
         <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>178</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>25</v>
@@ -1749,19 +1749,19 @@
         <v>1000</v>
       </c>
       <c r="U7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X7" t="s">
         <v>28</v>
       </c>
       <c r="Y7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AB7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -1772,10 +1772,10 @@
         <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1790,13 +1790,13 @@
         <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>179</v>
       </c>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>25</v>
@@ -1823,19 +1823,19 @@
         <v>1000</v>
       </c>
       <c r="U8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X8" t="s">
         <v>28</v>
       </c>
       <c r="Y8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AB8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -1846,10 +1846,10 @@
         <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1864,13 +1864,13 @@
         <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="J9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>25</v>
@@ -1897,19 +1897,19 @@
         <v>1000</v>
       </c>
       <c r="U9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X9" t="s">
         <v>28</v>
       </c>
       <c r="Y9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AB9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -1920,10 +1920,10 @@
         <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1938,13 +1938,13 @@
         <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>74</v>
+        <v>181</v>
       </c>
       <c r="J10" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="K10" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>25</v>
@@ -1971,19 +1971,19 @@
         <v>1000</v>
       </c>
       <c r="U10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X10" t="s">
         <v>28</v>
       </c>
       <c r="Y10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AB10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -1994,10 +1994,10 @@
         <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2009,16 +2009,16 @@
         <v>1</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="I11" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="J11" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="K11" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>25</v>
@@ -2045,19 +2045,19 @@
         <v>1000</v>
       </c>
       <c r="U11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X11" t="s">
         <v>28</v>
       </c>
       <c r="Y11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AB11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -2068,10 +2068,10 @@
         <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2086,13 +2086,13 @@
         <v>38</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="J12">
         <v>8997232970046</v>
       </c>
       <c r="K12" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>25</v>
@@ -2119,19 +2119,19 @@
         <v>1000</v>
       </c>
       <c r="U12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X12" t="s">
         <v>28</v>
       </c>
       <c r="Y12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AB12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -2142,10 +2142,10 @@
         <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2160,13 +2160,13 @@
         <v>33</v>
       </c>
       <c r="I13" t="s">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="J13">
         <v>8997232970053</v>
       </c>
       <c r="K13" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>25</v>
@@ -2193,19 +2193,19 @@
         <v>1000</v>
       </c>
       <c r="U13" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X13" t="s">
         <v>28</v>
       </c>
       <c r="Y13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AB13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -2216,10 +2216,10 @@
         <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2231,16 +2231,16 @@
         <v>1</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="J14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" t="s">
         <v>51</v>
-      </c>
-      <c r="K14" t="s">
-        <v>52</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>25</v>
@@ -2267,19 +2267,19 @@
         <v>1000</v>
       </c>
       <c r="U14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W14" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X14" t="s">
         <v>28</v>
       </c>
       <c r="Y14" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AB14" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -2290,10 +2290,10 @@
         <v>49</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2308,13 +2308,13 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c r="J15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>25</v>
@@ -2341,19 +2341,19 @@
         <v>1000</v>
       </c>
       <c r="U15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X15" t="s">
         <v>28</v>
       </c>
       <c r="Y15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AB15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -2364,10 +2364,10 @@
         <v>49</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2382,13 +2382,13 @@
         <v>27</v>
       </c>
       <c r="I16" t="s">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="J16">
         <v>8997232970046</v>
       </c>
       <c r="K16" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>25</v>
@@ -2415,10 +2415,10 @@
         <v>1000</v>
       </c>
       <c r="U16" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="W16" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="X16" t="s">
         <v>35</v>
@@ -2427,13 +2427,13 @@
         <v>36</v>
       </c>
       <c r="Z16" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AA16" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AB16" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -2444,10 +2444,10 @@
         <v>49</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2459,16 +2459,16 @@
         <v>1</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="J17">
         <v>8997232970053</v>
       </c>
       <c r="K17" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>25</v>
@@ -2495,10 +2495,10 @@
         <v>1000</v>
       </c>
       <c r="U17" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="W17" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="X17" t="s">
         <v>35</v>
@@ -2507,13 +2507,13 @@
         <v>36</v>
       </c>
       <c r="Z17" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AA17" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AB17" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -2524,10 +2524,10 @@
         <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2542,13 +2542,13 @@
         <v>37</v>
       </c>
       <c r="I18" t="s">
-        <v>95</v>
+        <v>189</v>
       </c>
       <c r="J18" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" t="s">
         <v>51</v>
-      </c>
-      <c r="K18" t="s">
-        <v>52</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>25</v>
@@ -2575,10 +2575,10 @@
         <v>1000</v>
       </c>
       <c r="U18" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="W18" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="X18" t="s">
         <v>35</v>
@@ -2587,13 +2587,13 @@
         <v>36</v>
       </c>
       <c r="Z18" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AA18" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AB18" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -2604,10 +2604,10 @@
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2622,13 +2622,13 @@
         <v>43</v>
       </c>
       <c r="I19" t="s">
-        <v>96</v>
+        <v>190</v>
       </c>
       <c r="J19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>25</v>
@@ -2655,10 +2655,10 @@
         <v>1000</v>
       </c>
       <c r="U19" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="W19" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="X19" t="s">
         <v>35</v>
@@ -2667,13 +2667,13 @@
         <v>36</v>
       </c>
       <c r="Z19" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AA19" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AB19" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -2684,10 +2684,10 @@
         <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2702,13 +2702,13 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="J20" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="K20" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>25</v>
@@ -2735,10 +2735,10 @@
         <v>1000</v>
       </c>
       <c r="U20" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="W20" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="X20" t="s">
         <v>35</v>
@@ -2747,13 +2747,13 @@
         <v>36</v>
       </c>
       <c r="Z20" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AA20" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AB20" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -2764,10 +2764,10 @@
         <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2779,16 +2779,16 @@
         <v>1</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s">
-        <v>101</v>
+        <v>192</v>
       </c>
       <c r="J21" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K21" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>25</v>
@@ -2815,10 +2815,10 @@
         <v>1000</v>
       </c>
       <c r="U21" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="W21" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="X21" t="s">
         <v>35</v>
@@ -2827,13 +2827,13 @@
         <v>36</v>
       </c>
       <c r="Z21" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AA21" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AB21" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -2844,10 +2844,10 @@
         <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2859,16 +2859,16 @@
         <v>1</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="J22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>25</v>
@@ -2895,10 +2895,10 @@
         <v>1000</v>
       </c>
       <c r="U22" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="W22" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="X22" t="s">
         <v>35</v>
@@ -2907,13 +2907,13 @@
         <v>36</v>
       </c>
       <c r="Z22" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AA22" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AB22" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -2924,10 +2924,10 @@
         <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2942,13 +2942,13 @@
         <v>40</v>
       </c>
       <c r="I23" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="J23" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="K23" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>25</v>
@@ -2975,10 +2975,10 @@
         <v>1000</v>
       </c>
       <c r="U23" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="W23" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="X23" t="s">
         <v>35</v>
@@ -2987,13 +2987,13 @@
         <v>36</v>
       </c>
       <c r="Z23" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AA23" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AB23" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -3004,10 +3004,10 @@
         <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -3019,16 +3019,16 @@
         <v>1</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="I24" t="s">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="J24" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K24" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>25</v>
@@ -3055,10 +3055,10 @@
         <v>1000</v>
       </c>
       <c r="U24" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="W24" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="X24" t="s">
         <v>35</v>
@@ -3067,13 +3067,13 @@
         <v>36</v>
       </c>
       <c r="Z24" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AA24" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AB24" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -3084,10 +3084,10 @@
         <v>49</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -3099,16 +3099,16 @@
         <v>1</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="I25" t="s">
-        <v>108</v>
+        <v>196</v>
       </c>
       <c r="J25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>25</v>
@@ -3135,25 +3135,25 @@
         <v>1000</v>
       </c>
       <c r="U25" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="W25" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="X25" t="s">
         <v>28</v>
       </c>
       <c r="Y25" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="Z25" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="AA25" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="AB25" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -3164,10 +3164,10 @@
         <v>49</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -3182,13 +3182,13 @@
         <v>44</v>
       </c>
       <c r="I26" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="J26" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>25</v>
@@ -3215,25 +3215,25 @@
         <v>1000</v>
       </c>
       <c r="U26" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="W26" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="X26" t="s">
         <v>28</v>
       </c>
       <c r="Y26" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="Z26" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="AA26" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="AB26" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -3244,10 +3244,10 @@
         <v>49</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -3259,16 +3259,16 @@
         <v>1</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="I27" t="s">
-        <v>116</v>
+        <v>198</v>
       </c>
       <c r="J27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K27" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>25</v>
@@ -3295,25 +3295,25 @@
         <v>1000</v>
       </c>
       <c r="U27" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="W27" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="X27" t="s">
         <v>28</v>
       </c>
       <c r="Y27" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="Z27" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="AA27" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="AB27" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -3324,10 +3324,10 @@
         <v>49</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -3339,16 +3339,16 @@
         <v>1</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="I28" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="J28" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K28" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>25</v>
@@ -3375,25 +3375,25 @@
         <v>1000</v>
       </c>
       <c r="U28" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="W28" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="X28" t="s">
         <v>28</v>
       </c>
       <c r="Y28" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="Z28" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="AA28" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="AB28" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -3404,10 +3404,10 @@
         <v>49</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -3419,16 +3419,16 @@
         <v>1</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="I29" t="s">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="J29" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" t="s">
         <v>51</v>
-      </c>
-      <c r="K29" t="s">
-        <v>52</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>25</v>
@@ -3455,25 +3455,25 @@
         <v>1000</v>
       </c>
       <c r="U29" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="W29" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="X29" t="s">
         <v>28</v>
       </c>
       <c r="Y29" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="Z29" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="AA29" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="AB29" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -3484,10 +3484,10 @@
         <v>49</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -3499,16 +3499,16 @@
         <v>1</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="I30" t="s">
-        <v>122</v>
+        <v>201</v>
       </c>
       <c r="J30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>25</v>
@@ -3535,25 +3535,25 @@
         <v>1000</v>
       </c>
       <c r="U30" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="W30" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="X30" t="s">
         <v>28</v>
       </c>
       <c r="Y30" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="Z30" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="AA30" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="AB30" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -3564,10 +3564,10 @@
         <v>49</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -3579,17 +3579,17 @@
         <v>1</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="I31" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="J31" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31" t="s">
         <v>51</v>
       </c>
-      <c r="K31" t="s">
-        <v>52</v>
-      </c>
       <c r="L31" s="1" t="s">
         <v>25</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>1000</v>
       </c>
       <c r="U31" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="W31" t="s">
         <v>36</v>
@@ -3638,10 +3638,10 @@
         <v>49</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -3653,16 +3653,16 @@
         <v>1</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="I32" t="s">
-        <v>127</v>
+        <v>203</v>
       </c>
       <c r="J32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>25</v>
@@ -3689,7 +3689,7 @@
         <v>1000</v>
       </c>
       <c r="U32" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="W32" t="s">
         <v>36</v>
@@ -3712,10 +3712,10 @@
         <v>49</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -3727,16 +3727,16 @@
         <v>1</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="I33" t="s">
-        <v>129</v>
+        <v>204</v>
       </c>
       <c r="J33" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K33" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>25</v>
@@ -3763,7 +3763,7 @@
         <v>1000</v>
       </c>
       <c r="U33" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="W33" t="s">
         <v>36</v>
@@ -3786,10 +3786,10 @@
         <v>49</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3801,16 +3801,16 @@
         <v>1</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="I34" t="s">
-        <v>131</v>
+        <v>205</v>
       </c>
       <c r="J34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>25</v>
@@ -3837,7 +3837,7 @@
         <v>1000</v>
       </c>
       <c r="U34" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="W34" t="s">
         <v>36</v>
@@ -3860,10 +3860,10 @@
         <v>49</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3875,16 +3875,16 @@
         <v>1</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="I35" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="J35" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K35" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>25</v>
@@ -3911,7 +3911,7 @@
         <v>1000</v>
       </c>
       <c r="U35" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="W35" t="s">
         <v>36</v>
@@ -3934,10 +3934,10 @@
         <v>49</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3949,16 +3949,16 @@
         <v>1</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="I36" t="s">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="J36" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="K36" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>25</v>
@@ -3985,7 +3985,7 @@
         <v>1000</v>
       </c>
       <c r="U36" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="W36" t="s">
         <v>36</v>
@@ -4008,10 +4008,10 @@
         <v>49</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -4023,16 +4023,16 @@
         <v>1</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="I37" t="s">
-        <v>137</v>
+        <v>208</v>
       </c>
       <c r="J37">
         <v>8997232970046</v>
       </c>
       <c r="K37" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>25</v>
@@ -4059,10 +4059,10 @@
         <v>1000</v>
       </c>
       <c r="U37" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="W37" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="X37" t="s">
         <v>35</v>
@@ -4071,13 +4071,13 @@
         <v>36</v>
       </c>
       <c r="Z37" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="AA37" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="AB37" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -4088,10 +4088,10 @@
         <v>49</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -4103,16 +4103,16 @@
         <v>1</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="I38" t="s">
-        <v>143</v>
+        <v>209</v>
       </c>
       <c r="J38" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38" t="s">
         <v>51</v>
-      </c>
-      <c r="K38" t="s">
-        <v>52</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>25</v>
@@ -4139,10 +4139,10 @@
         <v>1000</v>
       </c>
       <c r="U38" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="W38" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="X38" t="s">
         <v>35</v>
@@ -4151,13 +4151,13 @@
         <v>36</v>
       </c>
       <c r="Z38" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="AA38" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="AB38" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -4168,10 +4168,10 @@
         <v>49</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -4183,16 +4183,16 @@
         <v>1</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="I39" t="s">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="J39" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K39" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>25</v>
@@ -4219,10 +4219,10 @@
         <v>1000</v>
       </c>
       <c r="U39" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="W39" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="X39" t="s">
         <v>35</v>
@@ -4231,13 +4231,13 @@
         <v>36</v>
       </c>
       <c r="Z39" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="AA39" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="AB39" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -4248,10 +4248,10 @@
         <v>49</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -4263,16 +4263,16 @@
         <v>1</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="I40" t="s">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="J40" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="K40" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>25</v>
@@ -4299,10 +4299,10 @@
         <v>1000</v>
       </c>
       <c r="U40" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="W40" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="X40" t="s">
         <v>35</v>
@@ -4311,13 +4311,13 @@
         <v>36</v>
       </c>
       <c r="Z40" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="AA40" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="AB40" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -4328,10 +4328,10 @@
         <v>49</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -4343,16 +4343,16 @@
         <v>1</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="I41" t="s">
-        <v>149</v>
+        <v>212</v>
       </c>
       <c r="J41" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K41" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>25</v>
@@ -4379,10 +4379,10 @@
         <v>1000</v>
       </c>
       <c r="U41" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="W41" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="X41" t="s">
         <v>35</v>
@@ -4391,13 +4391,13 @@
         <v>36</v>
       </c>
       <c r="Z41" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="AA41" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="AB41" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -4408,10 +4408,10 @@
         <v>49</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -4423,16 +4423,16 @@
         <v>1</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="I42" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="J42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K42" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>25</v>
@@ -4459,10 +4459,10 @@
         <v>1000</v>
       </c>
       <c r="U42" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="W42" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="X42" t="s">
         <v>35</v>
@@ -4471,13 +4471,13 @@
         <v>36</v>
       </c>
       <c r="Z42" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="AA42" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="AB42" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -4488,10 +4488,10 @@
         <v>49</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -4503,16 +4503,16 @@
         <v>1</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="I43" t="s">
-        <v>153</v>
+        <v>214</v>
       </c>
       <c r="J43" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K43" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>25</v>
@@ -4539,10 +4539,10 @@
         <v>1000</v>
       </c>
       <c r="U43" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="W43" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="X43" t="s">
         <v>35</v>
@@ -4551,13 +4551,13 @@
         <v>36</v>
       </c>
       <c r="Z43" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="AA43" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="AB43" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -4568,10 +4568,10 @@
         <v>49</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -4583,16 +4583,16 @@
         <v>1</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="I44" t="s">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="J44" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="K44" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>25</v>
@@ -4619,10 +4619,10 @@
         <v>1000</v>
       </c>
       <c r="U44" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="W44" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="X44" t="s">
         <v>35</v>
@@ -4631,13 +4631,13 @@
         <v>36</v>
       </c>
       <c r="Z44" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="AA44" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="AB44" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -4648,10 +4648,10 @@
         <v>49</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -4663,16 +4663,16 @@
         <v>1</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="I45" t="s">
-        <v>157</v>
+        <v>216</v>
       </c>
       <c r="J45" t="s">
+        <v>50</v>
+      </c>
+      <c r="K45" t="s">
         <v>51</v>
-      </c>
-      <c r="K45" t="s">
-        <v>52</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>25</v>
@@ -4699,10 +4699,10 @@
         <v>1000</v>
       </c>
       <c r="U45" t="s">
+        <v>52</v>
+      </c>
+      <c r="W45" t="s">
         <v>53</v>
-      </c>
-      <c r="W45" t="s">
-        <v>54</v>
       </c>
       <c r="X45" t="s">
         <v>35</v>
@@ -4711,13 +4711,13 @@
         <v>36</v>
       </c>
       <c r="Z45" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA45" t="s">
         <v>55</v>
       </c>
-      <c r="AA45" t="s">
-        <v>56</v>
-      </c>
       <c r="AB45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -4728,10 +4728,10 @@
         <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -4743,16 +4743,16 @@
         <v>1</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="I46" t="s">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c r="J46" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K46" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>25</v>
@@ -4779,10 +4779,10 @@
         <v>1000</v>
       </c>
       <c r="U46" t="s">
+        <v>52</v>
+      </c>
+      <c r="W46" t="s">
         <v>53</v>
-      </c>
-      <c r="W46" t="s">
-        <v>54</v>
       </c>
       <c r="X46" t="s">
         <v>35</v>
@@ -4791,13 +4791,13 @@
         <v>36</v>
       </c>
       <c r="Z46" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA46" t="s">
         <v>55</v>
       </c>
-      <c r="AA46" t="s">
-        <v>56</v>
-      </c>
       <c r="AB46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -4808,10 +4808,10 @@
         <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -4823,16 +4823,16 @@
         <v>1</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="I47" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="J47" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>25</v>
@@ -4859,10 +4859,10 @@
         <v>1000</v>
       </c>
       <c r="U47" t="s">
+        <v>52</v>
+      </c>
+      <c r="W47" t="s">
         <v>53</v>
-      </c>
-      <c r="W47" t="s">
-        <v>54</v>
       </c>
       <c r="X47" t="s">
         <v>35</v>
@@ -4871,13 +4871,13 @@
         <v>36</v>
       </c>
       <c r="Z47" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA47" t="s">
         <v>55</v>
       </c>
-      <c r="AA47" t="s">
-        <v>56</v>
-      </c>
       <c r="AB47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -4888,10 +4888,10 @@
         <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -4903,16 +4903,16 @@
         <v>1</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="I48" t="s">
-        <v>163</v>
+        <v>219</v>
       </c>
       <c r="J48" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K48" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>25</v>
@@ -4939,10 +4939,10 @@
         <v>1000</v>
       </c>
       <c r="U48" t="s">
+        <v>52</v>
+      </c>
+      <c r="W48" t="s">
         <v>53</v>
-      </c>
-      <c r="W48" t="s">
-        <v>54</v>
       </c>
       <c r="X48" t="s">
         <v>35</v>
@@ -4951,13 +4951,13 @@
         <v>36</v>
       </c>
       <c r="Z48" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA48" t="s">
         <v>55</v>
       </c>
-      <c r="AA48" t="s">
-        <v>56</v>
-      </c>
       <c r="AB48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -4968,10 +4968,10 @@
         <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -4983,16 +4983,16 @@
         <v>1</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="I49" t="s">
-        <v>165</v>
+        <v>220</v>
       </c>
       <c r="J49" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K49" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>25</v>
@@ -5019,10 +5019,10 @@
         <v>1000</v>
       </c>
       <c r="U49" t="s">
+        <v>52</v>
+      </c>
+      <c r="W49" t="s">
         <v>53</v>
-      </c>
-      <c r="W49" t="s">
-        <v>54</v>
       </c>
       <c r="X49" t="s">
         <v>35</v>
@@ -5031,13 +5031,13 @@
         <v>36</v>
       </c>
       <c r="Z49" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA49" t="s">
         <v>55</v>
       </c>
-      <c r="AA49" t="s">
-        <v>56</v>
-      </c>
       <c r="AB49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -5048,10 +5048,10 @@
         <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -5063,16 +5063,16 @@
         <v>1</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="I50" t="s">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="J50" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>25</v>
@@ -5099,19 +5099,19 @@
         <v>1000</v>
       </c>
       <c r="U50" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W50" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X50" t="s">
         <v>28</v>
       </c>
       <c r="Y50" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AB50" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -5122,10 +5122,10 @@
         <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -5137,16 +5137,16 @@
         <v>1</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="I51" t="s">
-        <v>169</v>
+        <v>222</v>
       </c>
       <c r="J51" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K51" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>25</v>
@@ -5173,19 +5173,19 @@
         <v>1000</v>
       </c>
       <c r="U51" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W51" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X51" t="s">
         <v>28</v>
       </c>
       <c r="Y51" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AB51" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -5196,10 +5196,10 @@
         <v>49</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -5211,16 +5211,16 @@
         <v>1</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="I52" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="J52" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K52" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>25</v>
@@ -5247,19 +5247,19 @@
         <v>1000</v>
       </c>
       <c r="U52" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W52" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X52" t="s">
         <v>28</v>
       </c>
       <c r="Y52" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AB52" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -5270,10 +5270,10 @@
         <v>49</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -5288,13 +5288,13 @@
         <v>41</v>
       </c>
       <c r="I53" t="s">
-        <v>172</v>
+        <v>224</v>
       </c>
       <c r="J53" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="K53" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>25</v>
@@ -5321,19 +5321,19 @@
         <v>1000</v>
       </c>
       <c r="U53" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W53" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X53" t="s">
         <v>28</v>
       </c>
       <c r="Y53" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AB53" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -5344,10 +5344,10 @@
         <v>49</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -5359,16 +5359,16 @@
         <v>1</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="I54" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
       <c r="J54" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="K54" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>25</v>
@@ -5395,19 +5395,19 @@
         <v>1000</v>
       </c>
       <c r="U54" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W54" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X54" t="s">
         <v>28</v>
       </c>
       <c r="Y54" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AB54" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -5418,10 +5418,10 @@
         <v>49</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -5433,16 +5433,16 @@
         <v>1</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>175</v>
+        <v>122</v>
       </c>
       <c r="I55" t="s">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c r="J55" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="K55" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>25</v>
@@ -5469,19 +5469,19 @@
         <v>1000</v>
       </c>
       <c r="U55" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W55" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X55" t="s">
         <v>28</v>
       </c>
       <c r="Y55" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AB55" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -5492,10 +5492,10 @@
         <v>49</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -5507,16 +5507,16 @@
         <v>1</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="I56" t="s">
-        <v>178</v>
+        <v>227</v>
       </c>
       <c r="J56">
         <v>8997232970046</v>
       </c>
       <c r="K56" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>25</v>
@@ -5543,19 +5543,19 @@
         <v>1000</v>
       </c>
       <c r="U56" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W56" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X56" t="s">
         <v>28</v>
       </c>
       <c r="Y56" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AB56" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -5566,10 +5566,10 @@
         <v>49</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -5581,16 +5581,16 @@
         <v>1</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>179</v>
+        <v>124</v>
       </c>
       <c r="I57" t="s">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="J57">
         <v>8997232970053</v>
       </c>
       <c r="K57" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>25</v>
@@ -5617,19 +5617,19 @@
         <v>1000</v>
       </c>
       <c r="U57" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W57" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X57" t="s">
         <v>28</v>
       </c>
       <c r="Y57" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AB57" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -5640,10 +5640,10 @@
         <v>49</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -5655,17 +5655,17 @@
         <v>1</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="I58" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="J58" t="s">
+        <v>50</v>
+      </c>
+      <c r="K58" t="s">
         <v>51</v>
       </c>
-      <c r="K58" t="s">
-        <v>52</v>
-      </c>
       <c r="L58" s="1" t="s">
         <v>25</v>
       </c>
@@ -5691,19 +5691,19 @@
         <v>1000</v>
       </c>
       <c r="U58" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W58" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X58" t="s">
         <v>28</v>
       </c>
       <c r="Y58" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AB58" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -5714,10 +5714,10 @@
         <v>49</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -5729,16 +5729,16 @@
         <v>1</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="I59" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="J59" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K59" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>25</v>
@@ -5765,19 +5765,19 @@
         <v>1000</v>
       </c>
       <c r="U59" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W59" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X59" t="s">
         <v>28</v>
       </c>
       <c r="Y59" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AB59" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -5788,10 +5788,10 @@
         <v>49</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -5803,16 +5803,16 @@
         <v>1</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="I60" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="J60">
         <v>8997232970046</v>
       </c>
       <c r="K60" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>25</v>
@@ -5839,10 +5839,10 @@
         <v>1000</v>
       </c>
       <c r="U60" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="W60" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="X60" t="s">
         <v>35</v>
@@ -5851,13 +5851,13 @@
         <v>36</v>
       </c>
       <c r="Z60" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AA60" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AB60" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -5868,10 +5868,10 @@
         <v>49</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -5883,16 +5883,16 @@
         <v>1</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="I61" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="J61" t="s">
+        <v>50</v>
+      </c>
+      <c r="K61" t="s">
         <v>51</v>
-      </c>
-      <c r="K61" t="s">
-        <v>52</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>25</v>
@@ -5919,10 +5919,10 @@
         <v>1000</v>
       </c>
       <c r="U61" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="W61" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="X61" t="s">
         <v>35</v>
@@ -5931,13 +5931,13 @@
         <v>36</v>
       </c>
       <c r="Z61" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AA61" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AB61" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -5948,10 +5948,10 @@
         <v>49</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -5963,16 +5963,16 @@
         <v>1</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="I62" t="s">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="J62" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K62" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>25</v>
@@ -5999,10 +5999,10 @@
         <v>1000</v>
       </c>
       <c r="U62" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="W62" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="X62" t="s">
         <v>35</v>
@@ -6011,13 +6011,13 @@
         <v>36</v>
       </c>
       <c r="Z62" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AA62" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AB62" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -6028,10 +6028,10 @@
         <v>49</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -6043,16 +6043,16 @@
         <v>1</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>191</v>
+        <v>130</v>
       </c>
       <c r="I63" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="J63" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="K63" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>25</v>
@@ -6079,10 +6079,10 @@
         <v>1000</v>
       </c>
       <c r="U63" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="W63" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="X63" t="s">
         <v>35</v>
@@ -6091,13 +6091,13 @@
         <v>36</v>
       </c>
       <c r="Z63" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AA63" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AB63" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -6108,10 +6108,10 @@
         <v>49</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -6123,16 +6123,16 @@
         <v>1</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="I64" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
       <c r="J64" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K64" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>25</v>
@@ -6159,10 +6159,10 @@
         <v>1000</v>
       </c>
       <c r="U64" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="W64" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="X64" t="s">
         <v>35</v>
@@ -6171,13 +6171,13 @@
         <v>36</v>
       </c>
       <c r="Z64" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AA64" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AB64" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -6188,10 +6188,10 @@
         <v>49</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -6203,16 +6203,16 @@
         <v>1</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>195</v>
+        <v>132</v>
       </c>
       <c r="I65" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="J65" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K65" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>25</v>
@@ -6239,10 +6239,10 @@
         <v>1000</v>
       </c>
       <c r="U65" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="W65" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="X65" t="s">
         <v>35</v>
@@ -6251,13 +6251,13 @@
         <v>36</v>
       </c>
       <c r="Z65" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AA65" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AB65" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -6268,10 +6268,10 @@
         <v>49</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -6283,16 +6283,16 @@
         <v>1</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="I66" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="J66" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K66" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>25</v>
@@ -6319,10 +6319,10 @@
         <v>1000</v>
       </c>
       <c r="U66" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="W66" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="X66" t="s">
         <v>35</v>
@@ -6331,13 +6331,13 @@
         <v>36</v>
       </c>
       <c r="Z66" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AA66" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AB66" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -6348,10 +6348,10 @@
         <v>49</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -6363,16 +6363,16 @@
         <v>1</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>199</v>
+        <v>134</v>
       </c>
       <c r="I67" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="J67" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="K67" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>25</v>
@@ -6399,10 +6399,10 @@
         <v>1000</v>
       </c>
       <c r="U67" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="W67" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="X67" t="s">
         <v>35</v>
@@ -6411,13 +6411,13 @@
         <v>36</v>
       </c>
       <c r="Z67" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AA67" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AB67" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -6428,10 +6428,10 @@
         <v>49</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -6443,17 +6443,17 @@
         <v>1</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="I68" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="J68" t="s">
+        <v>50</v>
+      </c>
+      <c r="K68" t="s">
         <v>51</v>
       </c>
-      <c r="K68" t="s">
-        <v>52</v>
-      </c>
       <c r="L68" s="1" t="s">
         <v>25</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>1000</v>
       </c>
       <c r="U68" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="W68" t="s">
         <v>36</v>
@@ -6502,10 +6502,10 @@
         <v>49</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -6517,16 +6517,16 @@
         <v>1</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="I69" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="J69" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K69" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>25</v>
@@ -6553,7 +6553,7 @@
         <v>1000</v>
       </c>
       <c r="U69" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="W69" t="s">
         <v>36</v>
@@ -6576,10 +6576,10 @@
         <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -6591,16 +6591,16 @@
         <v>1</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="I70" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="J70" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K70" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>25</v>
@@ -6627,7 +6627,7 @@
         <v>1000</v>
       </c>
       <c r="U70" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="W70" t="s">
         <v>36</v>
@@ -6650,10 +6650,10 @@
         <v>49</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -6665,16 +6665,16 @@
         <v>1</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="I71" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="J71" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K71" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>25</v>
@@ -6701,7 +6701,7 @@
         <v>1000</v>
       </c>
       <c r="U71" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="W71" t="s">
         <v>36</v>
@@ -6724,10 +6724,10 @@
         <v>49</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -6739,16 +6739,16 @@
         <v>1</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>209</v>
+        <v>139</v>
       </c>
       <c r="I72" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="J72" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K72" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>25</v>
@@ -6775,7 +6775,7 @@
         <v>1000</v>
       </c>
       <c r="U72" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="W72" t="s">
         <v>36</v>
@@ -6798,10 +6798,10 @@
         <v>49</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -6813,16 +6813,16 @@
         <v>1</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>211</v>
+        <v>140</v>
       </c>
       <c r="I73" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="J73" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="K73" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>25</v>
@@ -6849,7 +6849,7 @@
         <v>1000</v>
       </c>
       <c r="U73" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="W73" t="s">
         <v>36</v>
@@ -6872,10 +6872,10 @@
         <v>49</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -6887,16 +6887,16 @@
         <v>1</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="I74" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="J74" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K74" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>25</v>
@@ -6923,19 +6923,19 @@
         <v>1000</v>
       </c>
       <c r="U74" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W74" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X74" t="s">
         <v>28</v>
       </c>
       <c r="Y74" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AB74" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -6946,10 +6946,10 @@
         <v>49</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -6961,16 +6961,16 @@
         <v>1</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>215</v>
+        <v>142</v>
       </c>
       <c r="I75" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="J75" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K75" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>25</v>
@@ -6997,19 +6997,19 @@
         <v>1000</v>
       </c>
       <c r="U75" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W75" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X75" t="s">
         <v>28</v>
       </c>
       <c r="Y75" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AB75" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -7020,10 +7020,10 @@
         <v>49</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -7038,13 +7038,13 @@
         <v>34</v>
       </c>
       <c r="I76" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="J76" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K76" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>25</v>
@@ -7071,19 +7071,19 @@
         <v>1000</v>
       </c>
       <c r="U76" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W76" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X76" t="s">
         <v>28</v>
       </c>
       <c r="Y76" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AB76" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -7094,10 +7094,10 @@
         <v>49</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -7109,16 +7109,16 @@
         <v>1</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="I77" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="J77" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="K77" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>25</v>
@@ -7145,19 +7145,19 @@
         <v>1000</v>
       </c>
       <c r="U77" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W77" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X77" t="s">
         <v>28</v>
       </c>
       <c r="Y77" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AB77" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -7168,10 +7168,10 @@
         <v>49</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -7183,16 +7183,16 @@
         <v>1</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>220</v>
+        <v>144</v>
       </c>
       <c r="I78" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="J78" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="K78" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>25</v>
@@ -7219,19 +7219,19 @@
         <v>1000</v>
       </c>
       <c r="U78" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W78" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X78" t="s">
         <v>28</v>
       </c>
       <c r="Y78" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AB78" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -7242,10 +7242,10 @@
         <v>49</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -7257,16 +7257,16 @@
         <v>1</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>222</v>
+        <v>145</v>
       </c>
       <c r="I79" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="J79" t="s">
-        <v>224</v>
+        <v>146</v>
       </c>
       <c r="K79" t="s">
-        <v>225</v>
+        <v>147</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>25</v>
@@ -7293,19 +7293,19 @@
         <v>1000</v>
       </c>
       <c r="U79" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W79" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X79" t="s">
         <v>28</v>
       </c>
       <c r="Y79" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AB79" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -7316,10 +7316,10 @@
         <v>49</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -7331,16 +7331,16 @@
         <v>1</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>226</v>
+        <v>148</v>
       </c>
       <c r="I80" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="J80" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="K80" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>25</v>
@@ -7367,19 +7367,19 @@
         <v>1000</v>
       </c>
       <c r="U80" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W80" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X80" t="s">
         <v>28</v>
       </c>
       <c r="Y80" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AB80" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -7390,10 +7390,10 @@
         <v>49</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -7405,16 +7405,16 @@
         <v>1</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="I81" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="J81">
         <v>8997232970046</v>
       </c>
       <c r="K81" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>25</v>
@@ -7441,19 +7441,19 @@
         <v>1000</v>
       </c>
       <c r="U81" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W81" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X81" t="s">
         <v>28</v>
       </c>
       <c r="Y81" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AB81" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -7464,10 +7464,10 @@
         <v>49</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -7479,16 +7479,16 @@
         <v>1</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="I82" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="J82">
         <v>8997232970053</v>
       </c>
       <c r="K82" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>25</v>
@@ -7515,19 +7515,19 @@
         <v>1000</v>
       </c>
       <c r="U82" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W82" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X82" t="s">
         <v>28</v>
       </c>
       <c r="Y82" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AB82" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -7538,10 +7538,10 @@
         <v>49</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -7553,16 +7553,16 @@
         <v>1</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>232</v>
+        <v>151</v>
       </c>
       <c r="I83" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="J83" t="s">
+        <v>50</v>
+      </c>
+      <c r="K83" t="s">
         <v>51</v>
-      </c>
-      <c r="K83" t="s">
-        <v>52</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>25</v>
@@ -7589,19 +7589,19 @@
         <v>1000</v>
       </c>
       <c r="U83" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W83" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X83" t="s">
         <v>28</v>
       </c>
       <c r="Y83" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AB83" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -7612,10 +7612,10 @@
         <v>49</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -7627,16 +7627,16 @@
         <v>1</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c r="I84" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="J84" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K84" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L84" s="1" t="s">
         <v>25</v>
@@ -7663,19 +7663,19 @@
         <v>1000</v>
       </c>
       <c r="U84" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W84" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X84" t="s">
         <v>28</v>
       </c>
       <c r="Y84" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AB84" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -7686,10 +7686,10 @@
         <v>49</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -7701,16 +7701,16 @@
         <v>1</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>236</v>
+        <v>153</v>
       </c>
       <c r="I85" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="J85">
         <v>8997232970046</v>
       </c>
       <c r="K85" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>25</v>
@@ -7737,10 +7737,10 @@
         <v>1000</v>
       </c>
       <c r="U85" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="W85" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="X85" t="s">
         <v>35</v>
@@ -7749,13 +7749,13 @@
         <v>36</v>
       </c>
       <c r="Z85" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="AA85" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="AB85" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -7766,10 +7766,10 @@
         <v>49</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -7781,16 +7781,16 @@
         <v>1</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>238</v>
+        <v>154</v>
       </c>
       <c r="I86" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="J86" t="s">
+        <v>50</v>
+      </c>
+      <c r="K86" t="s">
         <v>51</v>
-      </c>
-      <c r="K86" t="s">
-        <v>52</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>25</v>
@@ -7817,10 +7817,10 @@
         <v>1000</v>
       </c>
       <c r="U86" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="W86" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="X86" t="s">
         <v>35</v>
@@ -7829,13 +7829,13 @@
         <v>36</v>
       </c>
       <c r="Z86" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="AA86" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="AB86" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -7846,10 +7846,10 @@
         <v>49</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -7861,16 +7861,16 @@
         <v>1</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="I87" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="J87" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K87" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L87" s="1" t="s">
         <v>25</v>
@@ -7897,10 +7897,10 @@
         <v>1000</v>
       </c>
       <c r="U87" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="W87" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="X87" t="s">
         <v>35</v>
@@ -7909,13 +7909,13 @@
         <v>36</v>
       </c>
       <c r="Z87" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="AA87" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="AB87" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -7926,10 +7926,10 @@
         <v>49</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -7941,16 +7941,16 @@
         <v>1</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>242</v>
+        <v>156</v>
       </c>
       <c r="I88" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="J88" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="K88" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>25</v>
@@ -7977,10 +7977,10 @@
         <v>1000</v>
       </c>
       <c r="U88" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="W88" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="X88" t="s">
         <v>35</v>
@@ -7989,13 +7989,13 @@
         <v>36</v>
       </c>
       <c r="Z88" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="AA88" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="AB88" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -8006,10 +8006,10 @@
         <v>49</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -8021,16 +8021,16 @@
         <v>1</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>244</v>
+        <v>157</v>
       </c>
       <c r="I89" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="J89" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K89" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>25</v>
@@ -8057,10 +8057,10 @@
         <v>1000</v>
       </c>
       <c r="U89" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="W89" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="X89" t="s">
         <v>35</v>
@@ -8069,13 +8069,13 @@
         <v>36</v>
       </c>
       <c r="Z89" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="AA89" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="AB89" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -8086,10 +8086,10 @@
         <v>49</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -8101,16 +8101,16 @@
         <v>1</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>246</v>
+        <v>158</v>
       </c>
       <c r="I90" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="J90" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K90" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>25</v>
@@ -8137,10 +8137,10 @@
         <v>1000</v>
       </c>
       <c r="U90" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="W90" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="X90" t="s">
         <v>35</v>
@@ -8149,13 +8149,13 @@
         <v>36</v>
       </c>
       <c r="Z90" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="AA90" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="AB90" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -8166,10 +8166,10 @@
         <v>49</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -8181,16 +8181,16 @@
         <v>1</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>248</v>
+        <v>159</v>
       </c>
       <c r="I91" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="J91" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K91" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>25</v>
@@ -8217,10 +8217,10 @@
         <v>1000</v>
       </c>
       <c r="U91" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="W91" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="X91" t="s">
         <v>35</v>
@@ -8229,13 +8229,13 @@
         <v>36</v>
       </c>
       <c r="Z91" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="AA91" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="AB91" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -8246,10 +8246,10 @@
         <v>49</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -8261,16 +8261,16 @@
         <v>1</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="I92" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="J92" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="K92" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>25</v>
@@ -8297,10 +8297,10 @@
         <v>1000</v>
       </c>
       <c r="U92" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="W92" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="X92" t="s">
         <v>35</v>
@@ -8309,13 +8309,13 @@
         <v>36</v>
       </c>
       <c r="Z92" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="AA92" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="AB92" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -8326,10 +8326,10 @@
         <v>49</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -8341,16 +8341,16 @@
         <v>1</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>252</v>
+        <v>161</v>
       </c>
       <c r="I93" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="J93" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K93" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L93" s="1" t="s">
         <v>25</v>
@@ -8377,25 +8377,25 @@
         <v>1000</v>
       </c>
       <c r="U93" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="W93" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="X93" t="s">
         <v>28</v>
       </c>
       <c r="Y93" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="Z93" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="AA93" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="AB93" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -8406,10 +8406,10 @@
         <v>49</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -8421,16 +8421,16 @@
         <v>1</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>254</v>
+        <v>162</v>
       </c>
       <c r="I94" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="J94" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="K94" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="L94" s="1" t="s">
         <v>25</v>
@@ -8457,25 +8457,25 @@
         <v>1000</v>
       </c>
       <c r="U94" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="W94" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="X94" t="s">
         <v>28</v>
       </c>
       <c r="Y94" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="Z94" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="AA94" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="AB94" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -8486,10 +8486,10 @@
         <v>49</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -8501,16 +8501,16 @@
         <v>1</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>256</v>
+        <v>163</v>
       </c>
       <c r="I95" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="J95" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K95" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>25</v>
@@ -8537,25 +8537,25 @@
         <v>1000</v>
       </c>
       <c r="U95" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="W95" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="X95" t="s">
         <v>28</v>
       </c>
       <c r="Y95" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="Z95" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="AA95" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="AB95" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="96" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -8566,10 +8566,10 @@
         <v>49</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -8581,16 +8581,16 @@
         <v>1</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>258</v>
+        <v>164</v>
       </c>
       <c r="I96" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="J96" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K96" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>25</v>
@@ -8617,25 +8617,25 @@
         <v>1000</v>
       </c>
       <c r="U96" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="W96" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="X96" t="s">
         <v>28</v>
       </c>
       <c r="Y96" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="Z96" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="AA96" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="AB96" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -8646,10 +8646,10 @@
         <v>49</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -8661,16 +8661,16 @@
         <v>1</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>260</v>
+        <v>165</v>
       </c>
       <c r="I97" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="J97" t="s">
+        <v>50</v>
+      </c>
+      <c r="K97" t="s">
         <v>51</v>
-      </c>
-      <c r="K97" t="s">
-        <v>52</v>
       </c>
       <c r="L97" s="1" t="s">
         <v>25</v>
@@ -8697,25 +8697,25 @@
         <v>1000</v>
       </c>
       <c r="U97" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="W97" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="X97" t="s">
         <v>28</v>
       </c>
       <c r="Y97" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="Z97" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="AA97" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="AB97" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -8726,31 +8726,31 @@
         <v>49</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I98" t="s">
         <v>269</v>
       </c>
-      <c r="E98">
-        <v>1</v>
-      </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="I98" t="s">
-        <v>263</v>
-      </c>
       <c r="J98" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K98" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L98" s="1" t="s">
         <v>25</v>
@@ -8777,25 +8777,25 @@
         <v>1000</v>
       </c>
       <c r="U98" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="W98" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="X98" t="s">
         <v>28</v>
       </c>
       <c r="Y98" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="Z98" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="AA98" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="AB98" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -8806,10 +8806,10 @@
         <v>49</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -8821,16 +8821,16 @@
         <v>1</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>264</v>
+        <v>167</v>
       </c>
       <c r="I99" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="J99" t="s">
+        <v>50</v>
+      </c>
+      <c r="K99" t="s">
         <v>51</v>
-      </c>
-      <c r="K99" t="s">
-        <v>52</v>
       </c>
       <c r="L99" s="1" t="s">
         <v>25</v>
@@ -8857,10 +8857,10 @@
         <v>1000</v>
       </c>
       <c r="U99" t="s">
+        <v>52</v>
+      </c>
+      <c r="W99" t="s">
         <v>53</v>
-      </c>
-      <c r="W99" t="s">
-        <v>54</v>
       </c>
       <c r="X99" t="s">
         <v>35</v>
@@ -8869,13 +8869,13 @@
         <v>36</v>
       </c>
       <c r="Z99" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA99" t="s">
         <v>55</v>
       </c>
-      <c r="AA99" t="s">
-        <v>56</v>
-      </c>
       <c r="AB99" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="100" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -8886,31 +8886,31 @@
         <v>49</v>
       </c>
       <c r="C100" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I100" t="s">
         <v>271</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="G100">
-        <v>1</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="I100" t="s">
-        <v>267</v>
-      </c>
       <c r="J100" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K100" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L100" s="1" t="s">
         <v>25</v>
@@ -8937,10 +8937,10 @@
         <v>1000</v>
       </c>
       <c r="U100" t="s">
+        <v>52</v>
+      </c>
+      <c r="W100" t="s">
         <v>53</v>
-      </c>
-      <c r="W100" t="s">
-        <v>54</v>
       </c>
       <c r="X100" t="s">
         <v>35</v>
@@ -8949,13 +8949,13 @@
         <v>36</v>
       </c>
       <c r="Z100" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA100" t="s">
         <v>55</v>
       </c>
-      <c r="AA100" t="s">
-        <v>56</v>
-      </c>
       <c r="AB100" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/bsd-api-dms-order/sample_Order_File_mamasuka_v3 - 100 data.xlsx
+++ b/bsd-api-dms-order/sample_Order_File_mamasuka_v3 - 100 data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\mono-dms-new\bsd-api-dms-order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557FBE26-0FAF-4FC5-99AC-DB9EE4ADD042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC39459C-F014-4EB2-B3FE-945CD47F560F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -560,301 +560,301 @@
     <t>DIST_JABAR</t>
   </si>
   <si>
-    <t>INV/20231101/DIST_JABAR/00</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/01</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/02</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/03</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/04</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/05</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/06</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/07</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/08</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/09</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/10</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/11</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/12</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/13</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/14</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/15</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/16</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/17</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/18</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/19</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/20</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/21</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/22</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/23</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/24</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/25</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/26</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/27</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/28</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/29</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/30</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/31</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/32</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/33</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/34</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/35</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/36</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/37</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/38</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/39</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/40</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/41</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/42</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/43</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/44</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/45</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/46</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/47</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/48</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/49</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/50</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/51</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/52</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/53</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/54</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/55</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/56</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/57</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/58</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/59</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/60</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/61</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/62</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/63</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/64</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/65</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/66</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/67</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/68</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/69</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/70</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/71</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/72</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/73</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/74</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/75</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/76</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/77</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/78</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/79</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/80</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/81</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/82</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/83</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/84</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/85</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/86</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/87</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/88</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/89</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/90</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/91</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/92</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/93</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/94</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/95</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/96</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/97</t>
-  </si>
-  <si>
-    <t>INV/20231101/DIST_JABAR/98</t>
+    <t>INV/20231105/DIST_JABAR/00</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/01</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/02</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/03</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/04</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/05</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/06</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/07</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/08</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/09</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/10</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/11</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/12</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/13</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/14</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/15</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/16</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/17</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/18</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/19</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/20</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/21</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/22</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/23</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/24</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/25</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/26</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/27</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/28</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/29</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/30</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/31</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/32</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/33</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/34</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/35</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/36</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/37</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/38</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/39</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/40</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/41</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/42</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/43</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/44</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/45</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/46</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/47</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/48</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/49</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/50</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/51</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/52</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/53</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/54</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/55</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/56</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/57</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/58</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/59</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/60</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/61</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/62</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/63</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/64</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/65</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/66</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/67</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/68</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/69</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/70</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/71</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/72</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/73</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/74</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/75</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/76</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/77</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/78</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/79</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/80</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/81</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/82</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/83</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/84</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/85</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/86</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/87</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/88</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/89</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/90</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/91</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/92</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/93</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/94</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/95</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/96</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/97</t>
+  </si>
+  <si>
+    <t>INV/20231105/DIST_JABAR/98</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1141,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2:I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/bsd-api-dms-order/sample_Order_File_mamasuka_v3 - 100 data.xlsx
+++ b/bsd-api-dms-order/sample_Order_File_mamasuka_v3 - 100 data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\mono-dms-new\bsd-api-dms-order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC39459C-F014-4EB2-B3FE-945CD47F560F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5880EFC3-CC94-4DCC-BCD8-B509EEBFD35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -560,301 +560,301 @@
     <t>DIST_JABAR</t>
   </si>
   <si>
-    <t>INV/20231105/DIST_JABAR/00</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/01</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/02</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/03</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/04</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/05</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/06</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/07</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/08</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/09</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/10</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/11</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/12</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/13</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/14</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/15</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/16</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/17</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/18</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/19</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/20</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/21</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/22</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/23</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/24</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/25</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/26</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/27</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/28</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/29</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/30</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/31</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/32</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/33</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/34</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/35</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/36</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/37</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/38</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/39</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/40</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/41</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/42</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/43</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/44</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/45</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/46</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/47</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/48</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/49</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/50</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/51</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/52</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/53</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/54</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/55</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/56</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/57</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/58</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/59</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/60</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/61</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/62</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/63</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/64</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/65</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/66</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/67</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/68</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/69</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/70</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/71</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/72</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/73</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/74</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/75</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/76</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/77</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/78</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/79</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/80</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/81</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/82</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/83</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/84</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/85</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/86</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/87</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/88</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/89</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/90</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/91</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/92</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/93</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/94</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/95</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/96</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/97</t>
-  </si>
-  <si>
-    <t>INV/20231105/DIST_JABAR/98</t>
+    <t>INV/20231106/DIST_JABAR_1/00</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/01</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/02</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/03</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/04</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/05</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/06</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/07</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/08</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/09</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/10</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/11</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/12</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/13</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/14</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/15</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/16</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/17</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/18</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/19</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/20</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/21</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/22</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/23</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/24</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/25</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/26</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/27</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/28</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/29</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/30</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/31</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/32</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/33</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/34</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/35</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/36</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/37</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/38</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/39</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/40</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/41</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/42</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/43</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/44</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/45</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/46</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/47</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/48</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/49</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/50</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/51</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/52</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/53</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/54</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/55</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/56</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/57</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/58</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/59</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/60</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/61</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/62</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/63</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/64</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/65</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/66</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/67</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/68</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/69</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/70</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/71</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/72</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/73</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/74</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/75</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/76</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/77</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/78</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/79</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/80</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/81</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/82</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/83</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/84</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/85</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/86</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/87</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/88</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/89</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/90</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/91</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/92</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/93</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/94</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/95</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/96</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/97</t>
+  </si>
+  <si>
+    <t>INV/20231106/DIST_JABAR_1/98</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1141,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2:I100"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1426,7 +1426,7 @@
         <v>1000</v>
       </c>
       <c r="T3">
-        <v>1000</v>
+        <v>12000</v>
       </c>
       <c r="U3" t="s">
         <v>52</v>
@@ -1506,7 +1506,7 @@
         <v>1000</v>
       </c>
       <c r="T4">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="U4" t="s">
         <v>52</v>
@@ -1586,7 +1586,7 @@
         <v>1000</v>
       </c>
       <c r="T5">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="U5" t="s">
         <v>52</v>
@@ -1666,7 +1666,7 @@
         <v>1000</v>
       </c>
       <c r="T6">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="U6" t="s">
         <v>52</v>
@@ -1746,7 +1746,7 @@
         <v>1000</v>
       </c>
       <c r="T7">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="U7" t="s">
         <v>64</v>
@@ -1820,7 +1820,7 @@
         <v>1000</v>
       </c>
       <c r="T8">
-        <v>1000</v>
+        <v>200000</v>
       </c>
       <c r="U8" t="s">
         <v>64</v>
@@ -1894,7 +1894,7 @@
         <v>1000</v>
       </c>
       <c r="T9">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="U9" t="s">
         <v>64</v>
@@ -1968,7 +1968,7 @@
         <v>1000</v>
       </c>
       <c r="T10">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="U10" t="s">
         <v>64</v>
@@ -2042,7 +2042,7 @@
         <v>1000</v>
       </c>
       <c r="T11">
-        <v>1000</v>
+        <v>9000</v>
       </c>
       <c r="U11" t="s">
         <v>64</v>
@@ -2116,7 +2116,7 @@
         <v>1000</v>
       </c>
       <c r="T12">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="U12" t="s">
         <v>64</v>
@@ -2190,7 +2190,7 @@
         <v>1000</v>
       </c>
       <c r="T13">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="U13" t="s">
         <v>64</v>
@@ -2338,7 +2338,7 @@
         <v>1000</v>
       </c>
       <c r="T15">
-        <v>1000</v>
+        <v>12000</v>
       </c>
       <c r="U15" t="s">
         <v>64</v>
@@ -2412,7 +2412,7 @@
         <v>1000</v>
       </c>
       <c r="T16">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="U16" t="s">
         <v>74</v>
@@ -2492,7 +2492,7 @@
         <v>1000</v>
       </c>
       <c r="T17">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="U17" t="s">
         <v>74</v>
@@ -2572,7 +2572,7 @@
         <v>1000</v>
       </c>
       <c r="T18">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="U18" t="s">
         <v>74</v>
@@ -2652,7 +2652,7 @@
         <v>1000</v>
       </c>
       <c r="T19">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="U19" t="s">
         <v>74</v>
@@ -2732,7 +2732,7 @@
         <v>1000</v>
       </c>
       <c r="T20">
-        <v>1000</v>
+        <v>200000</v>
       </c>
       <c r="U20" t="s">
         <v>74</v>
@@ -2812,7 +2812,7 @@
         <v>1000</v>
       </c>
       <c r="T21">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="U21" t="s">
         <v>74</v>
@@ -2892,7 +2892,7 @@
         <v>1000</v>
       </c>
       <c r="T22">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="U22" t="s">
         <v>74</v>
@@ -2972,7 +2972,7 @@
         <v>1000</v>
       </c>
       <c r="T23">
-        <v>1000</v>
+        <v>9000</v>
       </c>
       <c r="U23" t="s">
         <v>74</v>
@@ -3052,7 +3052,7 @@
         <v>1000</v>
       </c>
       <c r="T24">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="U24" t="s">
         <v>74</v>
@@ -3132,7 +3132,7 @@
         <v>1000</v>
       </c>
       <c r="T25">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="U25" t="s">
         <v>85</v>
@@ -3292,7 +3292,7 @@
         <v>1000</v>
       </c>
       <c r="T27">
-        <v>1000</v>
+        <v>12000</v>
       </c>
       <c r="U27" t="s">
         <v>85</v>
@@ -3372,7 +3372,7 @@
         <v>1000</v>
       </c>
       <c r="T28">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="U28" t="s">
         <v>85</v>
@@ -3452,7 +3452,7 @@
         <v>1000</v>
       </c>
       <c r="T29">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="U29" t="s">
         <v>85</v>
@@ -3532,7 +3532,7 @@
         <v>1000</v>
       </c>
       <c r="T30">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="U30" t="s">
         <v>85</v>
@@ -3612,7 +3612,7 @@
         <v>1000</v>
       </c>
       <c r="T31">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="U31" t="s">
         <v>95</v>
@@ -3686,7 +3686,7 @@
         <v>1000</v>
       </c>
       <c r="T32">
-        <v>1000</v>
+        <v>200000</v>
       </c>
       <c r="U32" t="s">
         <v>95</v>
@@ -3760,7 +3760,7 @@
         <v>1000</v>
       </c>
       <c r="T33">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="U33" t="s">
         <v>95</v>
@@ -3834,7 +3834,7 @@
         <v>1000</v>
       </c>
       <c r="T34">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="U34" t="s">
         <v>95</v>
@@ -3908,7 +3908,7 @@
         <v>1000</v>
       </c>
       <c r="T35">
-        <v>1000</v>
+        <v>9000</v>
       </c>
       <c r="U35" t="s">
         <v>95</v>
@@ -3982,7 +3982,7 @@
         <v>1000</v>
       </c>
       <c r="T36">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="U36" t="s">
         <v>95</v>
@@ -4056,7 +4056,7 @@
         <v>1000</v>
       </c>
       <c r="T37">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="U37" t="s">
         <v>102</v>
@@ -4216,7 +4216,7 @@
         <v>1000</v>
       </c>
       <c r="T39">
-        <v>1000</v>
+        <v>12000</v>
       </c>
       <c r="U39" t="s">
         <v>102</v>
@@ -4296,7 +4296,7 @@
         <v>1000</v>
       </c>
       <c r="T40">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="U40" t="s">
         <v>102</v>
@@ -4376,7 +4376,7 @@
         <v>1000</v>
       </c>
       <c r="T41">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="U41" t="s">
         <v>102</v>
@@ -4456,7 +4456,7 @@
         <v>1000</v>
       </c>
       <c r="T42">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="U42" t="s">
         <v>102</v>
@@ -4536,7 +4536,7 @@
         <v>1000</v>
       </c>
       <c r="T43">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="U43" t="s">
         <v>102</v>
@@ -4616,7 +4616,7 @@
         <v>1000</v>
       </c>
       <c r="T44">
-        <v>1000</v>
+        <v>200000</v>
       </c>
       <c r="U44" t="s">
         <v>102</v>
@@ -4776,7 +4776,7 @@
         <v>1000</v>
       </c>
       <c r="T46">
-        <v>1000</v>
+        <v>12000</v>
       </c>
       <c r="U46" t="s">
         <v>52</v>
@@ -4856,7 +4856,7 @@
         <v>1000</v>
       </c>
       <c r="T47">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="U47" t="s">
         <v>52</v>
@@ -4936,7 +4936,7 @@
         <v>1000</v>
       </c>
       <c r="T48">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="U48" t="s">
         <v>52</v>
@@ -5016,7 +5016,7 @@
         <v>1000</v>
       </c>
       <c r="T49">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="U49" t="s">
         <v>52</v>
@@ -5096,7 +5096,7 @@
         <v>1000</v>
       </c>
       <c r="T50">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="U50" t="s">
         <v>64</v>
@@ -5170,7 +5170,7 @@
         <v>1000</v>
       </c>
       <c r="T51">
-        <v>1000</v>
+        <v>200000</v>
       </c>
       <c r="U51" t="s">
         <v>64</v>
@@ -5244,7 +5244,7 @@
         <v>1000</v>
       </c>
       <c r="T52">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="U52" t="s">
         <v>64</v>
@@ -5318,7 +5318,7 @@
         <v>1000</v>
       </c>
       <c r="T53">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="U53" t="s">
         <v>64</v>
@@ -5392,7 +5392,7 @@
         <v>1000</v>
       </c>
       <c r="T54">
-        <v>1000</v>
+        <v>9000</v>
       </c>
       <c r="U54" t="s">
         <v>64</v>
@@ -5466,7 +5466,7 @@
         <v>1000</v>
       </c>
       <c r="T55">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="U55" t="s">
         <v>64</v>
@@ -5540,7 +5540,7 @@
         <v>1000</v>
       </c>
       <c r="T56">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="U56" t="s">
         <v>64</v>
@@ -5688,7 +5688,7 @@
         <v>1000</v>
       </c>
       <c r="T58">
-        <v>1000</v>
+        <v>12000</v>
       </c>
       <c r="U58" t="s">
         <v>64</v>
@@ -5762,7 +5762,7 @@
         <v>1000</v>
       </c>
       <c r="T59">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="U59" t="s">
         <v>64</v>
@@ -5836,7 +5836,7 @@
         <v>1000</v>
       </c>
       <c r="T60">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="U60" t="s">
         <v>74</v>
@@ -5916,7 +5916,7 @@
         <v>1000</v>
       </c>
       <c r="T61">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="U61" t="s">
         <v>74</v>
@@ -5996,7 +5996,7 @@
         <v>1000</v>
       </c>
       <c r="T62">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="U62" t="s">
         <v>74</v>
@@ -6076,7 +6076,7 @@
         <v>1000</v>
       </c>
       <c r="T63">
-        <v>1000</v>
+        <v>200000</v>
       </c>
       <c r="U63" t="s">
         <v>74</v>
@@ -6156,7 +6156,7 @@
         <v>1000</v>
       </c>
       <c r="T64">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="U64" t="s">
         <v>74</v>
@@ -6236,7 +6236,7 @@
         <v>1000</v>
       </c>
       <c r="T65">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="U65" t="s">
         <v>74</v>
@@ -6316,7 +6316,7 @@
         <v>1000</v>
       </c>
       <c r="T66">
-        <v>1000</v>
+        <v>9000</v>
       </c>
       <c r="U66" t="s">
         <v>74</v>
@@ -6396,7 +6396,7 @@
         <v>1000</v>
       </c>
       <c r="T67">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="U67" t="s">
         <v>74</v>
@@ -6550,7 +6550,7 @@
         <v>1000</v>
       </c>
       <c r="T69">
-        <v>1000</v>
+        <v>12000</v>
       </c>
       <c r="U69" t="s">
         <v>95</v>
@@ -6624,7 +6624,7 @@
         <v>1000</v>
       </c>
       <c r="T70">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="U70" t="s">
         <v>95</v>
@@ -6698,7 +6698,7 @@
         <v>1000</v>
       </c>
       <c r="T71">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="U71" t="s">
         <v>95</v>
@@ -6772,7 +6772,7 @@
         <v>1000</v>
       </c>
       <c r="T72">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="U72" t="s">
         <v>95</v>
@@ -6846,7 +6846,7 @@
         <v>1000</v>
       </c>
       <c r="T73">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="U73" t="s">
         <v>95</v>
@@ -6920,7 +6920,7 @@
         <v>1000</v>
       </c>
       <c r="T74">
-        <v>1000</v>
+        <v>200000</v>
       </c>
       <c r="U74" t="s">
         <v>64</v>
@@ -6994,7 +6994,7 @@
         <v>1000</v>
       </c>
       <c r="T75">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="U75" t="s">
         <v>64</v>
@@ -7068,7 +7068,7 @@
         <v>1000</v>
       </c>
       <c r="T76">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="U76" t="s">
         <v>64</v>
@@ -7142,7 +7142,7 @@
         <v>1000</v>
       </c>
       <c r="T77">
-        <v>1000</v>
+        <v>9000</v>
       </c>
       <c r="U77" t="s">
         <v>64</v>
@@ -7216,7 +7216,7 @@
         <v>1000</v>
       </c>
       <c r="T78">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="U78" t="s">
         <v>64</v>
@@ -7290,7 +7290,7 @@
         <v>1000</v>
       </c>
       <c r="T79">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="U79" t="s">
         <v>64</v>
@@ -7438,7 +7438,7 @@
         <v>1000</v>
       </c>
       <c r="T81">
-        <v>1000</v>
+        <v>12000</v>
       </c>
       <c r="U81" t="s">
         <v>64</v>
@@ -7512,7 +7512,7 @@
         <v>1000</v>
       </c>
       <c r="T82">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="U82" t="s">
         <v>64</v>
@@ -7586,7 +7586,7 @@
         <v>1000</v>
       </c>
       <c r="T83">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="U83" t="s">
         <v>64</v>
@@ -7660,7 +7660,7 @@
         <v>1000</v>
       </c>
       <c r="T84">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="U84" t="s">
         <v>64</v>
@@ -7734,7 +7734,7 @@
         <v>1000</v>
       </c>
       <c r="T85">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="U85" t="s">
         <v>102</v>
@@ -7814,7 +7814,7 @@
         <v>1000</v>
       </c>
       <c r="T86">
-        <v>1000</v>
+        <v>200000</v>
       </c>
       <c r="U86" t="s">
         <v>102</v>
@@ -7894,7 +7894,7 @@
         <v>1000</v>
       </c>
       <c r="T87">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="U87" t="s">
         <v>102</v>
@@ -7974,7 +7974,7 @@
         <v>1000</v>
       </c>
       <c r="T88">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="U88" t="s">
         <v>102</v>
@@ -8054,7 +8054,7 @@
         <v>1000</v>
       </c>
       <c r="T89">
-        <v>1000</v>
+        <v>9000</v>
       </c>
       <c r="U89" t="s">
         <v>102</v>
@@ -8134,7 +8134,7 @@
         <v>1000</v>
       </c>
       <c r="T90">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="U90" t="s">
         <v>102</v>
@@ -8214,7 +8214,7 @@
         <v>1000</v>
       </c>
       <c r="T91">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="U91" t="s">
         <v>102</v>
@@ -8374,7 +8374,7 @@
         <v>1000</v>
       </c>
       <c r="T93">
-        <v>1000</v>
+        <v>12000</v>
       </c>
       <c r="U93" t="s">
         <v>85</v>
@@ -8454,7 +8454,7 @@
         <v>1000</v>
       </c>
       <c r="T94">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="U94" t="s">
         <v>85</v>
@@ -8534,7 +8534,7 @@
         <v>1000</v>
       </c>
       <c r="T95">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="U95" t="s">
         <v>85</v>
@@ -8614,7 +8614,7 @@
         <v>1000</v>
       </c>
       <c r="T96">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="U96" t="s">
         <v>85</v>
@@ -8694,7 +8694,7 @@
         <v>1000</v>
       </c>
       <c r="T97">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="U97" t="s">
         <v>85</v>
@@ -8774,7 +8774,7 @@
         <v>1000</v>
       </c>
       <c r="T98">
-        <v>1000</v>
+        <v>200000</v>
       </c>
       <c r="U98" t="s">
         <v>85</v>
@@ -8854,7 +8854,7 @@
         <v>1000</v>
       </c>
       <c r="T99">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="U99" t="s">
         <v>52</v>
@@ -8934,7 +8934,7 @@
         <v>1000</v>
       </c>
       <c r="T100">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="U100" t="s">
         <v>52</v>
